--- a/rhla_analysis/rhla1_3_zipf_result/result.xlsx
+++ b/rhla_analysis/rhla1_3_zipf_result/result.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.763150333383662</v>
+        <v>6.763150333383734</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.0662881340773</v>
+        <v>14.06628813407719</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.70082895160443</v>
+        <v>15.70082895160444</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.9446531727049</v>
+        <v>14.94465317270488</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.905611824183899</v>
+        <v>4.905611824183931</v>
       </c>
     </row>
     <row r="8">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.84437616525816</v>
+        <v>15.84437616525818</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.00131703677109</v>
+        <v>12.00131703677107</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.58117899237929</v>
+        <v>29.58117899237931</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.3867755792695</v>
+        <v>27.38677557926949</v>
       </c>
     </row>
     <row r="15">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.63510021349027</v>
+        <v>46.63510021349043</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>45.56715925560394</v>
+        <v>45.56715925560374</v>
       </c>
     </row>
     <row r="19">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55.81596328455305</v>
+        <v>55.81596328455298</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.83069150938449</v>
+        <v>24.8306915093845</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.23124830783559</v>
+        <v>34.23124830783536</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.50522295590978</v>
+        <v>40.50522295590967</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.10525271032867</v>
+        <v>34.10525271032851</v>
       </c>
     </row>
     <row r="26">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31.62912593198802</v>
+        <v>31.62912593198791</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.26079260908015</v>
+        <v>52.26079260907972</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>57.58455400738308</v>
+        <v>57.584554007383</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>57.22226273174416</v>
+        <v>57.22226273174402</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>45.06496907848216</v>
+        <v>45.064969078482</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>59.62051117578584</v>
+        <v>59.62051117578557</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.43069852911997</v>
+        <v>70.43069852911995</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60.2290711473926</v>
+        <v>60.22907114739265</v>
       </c>
     </row>
     <row r="36">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.18398578689261</v>
+        <v>42.18398578689277</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>56.25247851410492</v>
+        <v>56.25247851410465</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.01692636014666</v>
+        <v>73.01692636014657</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>63.36201548815666</v>
+        <v>63.36201548815642</v>
       </c>
     </row>
     <row r="41">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39.89204575957984</v>
+        <v>39.8920457595808</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.18056417318523</v>
+        <v>98.18056417318562</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>90.49753149970104</v>
+        <v>90.49753149970154</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>91.17140003629466</v>
+        <v>91.1714000362947</v>
       </c>
     </row>
     <row r="46">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>49.07118372262851</v>
+        <v>49.07118372262823</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>110.3273814338356</v>
+        <v>110.3273814338358</v>
       </c>
     </row>
     <row r="49">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>32.78357825897761</v>
+        <v>32.78357825897753</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>131.9272853645277</v>
+        <v>131.9272853645286</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>115.1184400588371</v>
+        <v>115.1184400588374</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>115.8775905204847</v>
+        <v>115.8775905204852</v>
       </c>
     </row>
     <row r="56">

--- a/rhla_analysis/rhla1_3_zipf_result/result.xlsx
+++ b/rhla_analysis/rhla1_3_zipf_result/result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.763150333383734</v>
+        <v>5.095835600228749</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.06628813407719</v>
+        <v>6.289609652343938</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.70082895160444</v>
+        <v>8.65966455631632</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.94465317270488</v>
+        <v>7.828427784235283</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.07871690427698573</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.905611824183931</v>
+        <v>6.487921929538942</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.72584547117598</v>
+        <v>9.330158604241756</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.84437616525818</v>
+        <v>11.25076378464761</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.84195627322966</v>
+        <v>10.44610361683182</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02958226768968457</v>
+        <v>0.08391038696537678</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.00131703677107</v>
+        <v>4.578724956163851</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.58117899237931</v>
+        <v>10.71587443492398</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.38677557926949</v>
+        <v>11.55839712666218</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.27165244564445</v>
+        <v>10.98558326091962</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03832054560954816</v>
+        <v>0.09579090291921248</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.63510021349043</v>
+        <v>6.77380780905041</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>45.56715925560374</v>
+        <v>22.5686897473729</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.93067672643387</v>
+        <v>23.11833826788443</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55.81596328455298</v>
+        <v>23.57865222115502</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.05630861040068201</v>
+        <v>0.1090970807875085</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.8306915093845</v>
+        <v>10.75393576946599</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.23124830783536</v>
+        <v>19.2250148327879</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.50522295590967</v>
+        <v>23.46943234614513</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.10525271032851</v>
+        <v>22.6732807308283</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.07595907928388747</v>
+        <v>0.1189409368635438</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31.62912593198791</v>
+        <v>19.45604791556719</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.26079260907972</v>
+        <v>21.91188208554781</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>57.584554007383</v>
+        <v>26.51593781437041</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>57.22226273174402</v>
+        <v>21.34270851394006</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.09032395566922422</v>
+        <v>0.1329599456890699</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>45.064969078482</v>
+        <v>16.61282981302916</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>59.62051117578557</v>
+        <v>28.50601899716317</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.43069852911995</v>
+        <v>34.91286809820957</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60.22907114739265</v>
+        <v>31.35336872795866</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1042625745950554</v>
+        <v>0.1504412763068567</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.18398578689277</v>
+        <v>22.78763466240061</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>56.25247851410465</v>
+        <v>44.62657000437181</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.01692636014657</v>
+        <v>47.10716232034666</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>63.36201548815642</v>
+        <v>43.19586177553071</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1215686274509804</v>
+        <v>0.1700950441276307</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39.8920457595808</v>
+        <v>31.9306350054735</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.18056417318562</v>
+        <v>73.19145210954086</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>90.49753149970154</v>
+        <v>71.66108769682015</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>91.1714000362947</v>
+        <v>70.15405122904603</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1443307757885763</v>
+        <v>0.1895451459606246</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>49.07118372262823</v>
+        <v>48.12265583584333</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>110.3273814338358</v>
+        <v>88.4099508460441</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>113.5099868969653</v>
+        <v>100.569620220583</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>109.6880805851401</v>
+        <v>94.14332412324362</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1607416879795396</v>
+        <v>0.2045824847250509</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>32.78357825897753</v>
+        <v>24.7866157027165</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>131.9272853645286</v>
+        <v>107.1952065869588</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>115.1184400588374</v>
+        <v>104.2525043664344</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>115.8775905204852</v>
+        <v>105.0125810363524</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.09036658141517477</v>
+        <v>0.2329260013577733</v>
       </c>
     </row>
   </sheetData>
